--- a/AAAGameData/DataTables/Core/UIGroupTable.xlsx
+++ b/AAAGameData/DataTables/Core/UIGroupTable.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19FADDD8-5FCF-4834-BF56-42F7F4D2017B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,13 +80,21 @@
   </si>
   <si>
     <t>提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIScenes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,9 +156,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -187,9 +196,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,7 +233,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,7 +268,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -432,23 +441,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +465,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -470,7 +479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -484,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -492,46 +501,60 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -542,12 +565,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -556,12 +579,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
